--- a/Species_code_Annotations.xlsx
+++ b/Species_code_Annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jscs/PAM/annotations_eda_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D57922A-447C-D542-B94C-BA25B920C84A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC84B38-E55E-364D-B556-27CC8206301E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="37460" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Species_code" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>Familia</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Signal quality</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>CLEAR</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
     </r>
   </si>
   <si>
-    <t>_C</t>
-  </si>
-  <si>
     <t>MEDIUM</t>
   </si>
   <si>
@@ -309,9 +303,6 @@
       </rPr>
       <t>es aquella que se puede escuchar e identificar visualmente en el espectrograma, pero que presenta superposición con otros sonidos bióticos o abióticos. La intensidad de la señal puede ser similar a la de otros elementos en la grabación, pero la estructura de la señal se puede identificar. En el oscilograma es difícil identificar su amplitud, y puede ser emitida por uno o varios individuos.</t>
     </r>
-  </si>
-  <si>
-    <t>_M</t>
   </si>
   <si>
     <t>FAR</t>
@@ -372,10 +363,16 @@
     </r>
   </si>
   <si>
-    <t>_F</t>
+    <t>BOAFAB</t>
   </si>
   <si>
-    <t>BOAFAB</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -797,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1178,7 +1175,7 @@
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -6068,7 +6065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6085,7 +6084,7 @@
         <v>59</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -6114,13 +6113,13 @@
     </row>
     <row r="2" spans="1:27" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>62</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -6149,13 +6148,13 @@
     </row>
     <row r="3" spans="1:27" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -6184,10 +6183,10 @@
     </row>
     <row r="4" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>69</v>
